--- a/ML/ML_files/2014_JAN.xlsx
+++ b/ML/ML_files/2014_JAN.xlsx
@@ -2128,7 +2128,7 @@
         <v>49544</v>
       </c>
       <c r="J35">
-        <v>-46.04997577910544</v>
+        <v>-46.04997577910545</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>230575</v>
       </c>
       <c r="J47">
-        <v>-29.48932017781632</v>
+        <v>-29.48932017781633</v>
       </c>
       <c r="K47">
         <v>13646</v>
@@ -4427,7 +4427,7 @@
         <v>1197575</v>
       </c>
       <c r="J81">
-        <v>63.20589524664427</v>
+        <v>63.20589524664428</v>
       </c>
       <c r="K81">
         <v>1954513</v>
@@ -4436,7 +4436,7 @@
         <v>1197575</v>
       </c>
       <c r="M81">
-        <v>63.20589524664427</v>
+        <v>63.20589524664428</v>
       </c>
       <c r="N81">
         <v>1006</v>
@@ -4629,7 +4629,7 @@
         <v>1858276</v>
       </c>
       <c r="J85">
-        <v>-12.10740492800853</v>
+        <v>-12.10740492800854</v>
       </c>
       <c r="K85">
         <v>1633287</v>
@@ -4638,7 +4638,7 @@
         <v>1858276</v>
       </c>
       <c r="M85">
-        <v>-12.10740492800853</v>
+        <v>-12.10740492800854</v>
       </c>
       <c r="N85">
         <v>498</v>
@@ -4721,7 +4721,7 @@
         <v>2654340</v>
       </c>
       <c r="D87">
-        <v>-11.83925194210236</v>
+        <v>-11.83925194210237</v>
       </c>
       <c r="E87">
         <v>2340086</v>
@@ -4730,7 +4730,7 @@
         <v>2654340</v>
       </c>
       <c r="G87">
-        <v>-11.83925194210236</v>
+        <v>-11.83925194210237</v>
       </c>
       <c r="H87">
         <v>2387101</v>
@@ -5531,7 +5531,7 @@
         <v>43883</v>
       </c>
       <c r="M102">
-        <v>123.9409338468199</v>
+        <v>123.94093384682</v>
       </c>
       <c r="N102">
         <v>190</v>
@@ -5969,7 +5969,7 @@
         <v>50032</v>
       </c>
       <c r="M111">
-        <v>39.22289734569875</v>
+        <v>39.22289734569876</v>
       </c>
       <c r="Q111">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>10422</v>
       </c>
       <c r="J116">
-        <v>21.75206294377278</v>
+        <v>21.75206294377279</v>
       </c>
       <c r="K116">
         <v>12387</v>
@@ -6224,7 +6224,7 @@
         <v>106731</v>
       </c>
       <c r="D117">
-        <v>-32.83488396061126</v>
+        <v>-32.83488396061127</v>
       </c>
       <c r="E117">
         <v>71686</v>
@@ -6233,7 +6233,7 @@
         <v>106731</v>
       </c>
       <c r="G117">
-        <v>-32.83488396061126</v>
+        <v>-32.83488396061127</v>
       </c>
       <c r="H117">
         <v>106297</v>
@@ -6478,7 +6478,7 @@
         <v>71909</v>
       </c>
       <c r="D122">
-        <v>9.787370148381981</v>
+        <v>9.787370148381982</v>
       </c>
       <c r="E122">
         <v>78947</v>
@@ -6487,7 +6487,7 @@
         <v>71909</v>
       </c>
       <c r="G122">
-        <v>9.787370148381981</v>
+        <v>9.787370148381982</v>
       </c>
       <c r="H122">
         <v>95568</v>
@@ -7537,7 +7537,7 @@
         <v>8</v>
       </c>
       <c r="Q143">
-        <v>783.2</v>
+        <v>783.2000000000001</v>
       </c>
     </row>
     <row r="144">
